--- a/_docs/Migration.xlsx
+++ b/_docs/Migration.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="450" windowWidth="28800" windowHeight="12570" tabRatio="450" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="900" windowWidth="28800" windowHeight="12570" tabRatio="450" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -2078,23 +2078,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="H51" sqref="H51"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="T1" sqref="T1:T1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.42578125" style="1" customWidth="1"/>
-    <col min="11" max="13" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="10.85546875" style="1" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="38.85546875" style="1" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" style="7" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="36.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="33.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="15" style="1" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="16.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="11" max="12" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125" style="1"/>
     <col min="14" max="14" width="23.85546875" style="1" customWidth="1"/>
     <col min="15" max="15" width="29.140625" style="1" customWidth="1"/>
     <col min="16" max="16" width="23" style="1" customWidth="1"/>
